--- a/Designdoc/0.1/EVECard-装备环境牌相关.xlsx
+++ b/Designdoc/0.1/EVECard-装备环境牌相关.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20940" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="20940" windowHeight="6870" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="装备说明" sheetId="6" r:id="rId1"/>
-    <sheet name="增益和减益" sheetId="2" r:id="rId2"/>
-    <sheet name="伤害类" sheetId="3" r:id="rId3"/>
-    <sheet name="环境干扰" sheetId="5" r:id="rId4"/>
+    <sheet name="增益、减益、附加效果类" sheetId="2" r:id="rId2"/>
+    <sheet name="单体、AOE伤害类" sheetId="3" r:id="rId3"/>
+    <sheet name="环境干扰类" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,390 +27,398 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ISK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>轻型快速导弹发射器 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备在一艘导弹巡洋舰，支付 1 ISK，对一艘护卫舰造成 2 点伤害（对于已有轻快导的船无法装配，受导弹延迟效果）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>重型快速导弹发射器 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备在一艘导弹战列舰，支付 1 ISK，对一艘巡洋舰造成 3 点伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>超光速粒子集束器 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备在一艘激光战列船，使其在攻击时获得免疫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>250mm磁轨炮 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备在一艘混合炮巡洋舰，降低其1点攻击，使其可以无视嘲讽进行攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>425mm磁轨炮 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备在一艘混合炮战列舰，降低其1点攻击，使其可以无视嘲讽进行攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1400mm加农炮 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备在一艘射弹炮战列舰，支付 1 ISK，对 旗舰/战列/战巡/巡洋/驱逐/护卫 造成 7/7/5/2/2/1 点伤害（两回合使用一次）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>弹道控制系统 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使一艘导弹船攻击+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>散热槽 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使一艘激光船攻击+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>磁性力场稳定器 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使一艘混合炮船攻击+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>回转稳定器 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使一艘射弹炮船攻击+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注电器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使目标舰船不受毁电的影响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>重型能量中和器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使一艘战列舰的攻击力和有效值 -6/-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注：有效值不会降到 1 以下，无法用于摧毁舰船</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中型能量中和器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使一艘巡洋舰的攻击力和有效值 -4/-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>超载</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使己方一艘船 +1/-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>损伤控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备在一艘船，使其在受到一次致命攻击时有效值最多降低至1，只能作用一次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>诱导力场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备予一艘己方舰船，使其拥有嘲讽，不可隐形，如果这艘船下回合存在，那么召唤的所有舰船拥有“就绪”</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1600mm装甲附甲板 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使一艘炮船有效值提高3，只装备在战巡及以上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大型护盾扩展装置 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使一艘导弹船有效值提高2，只能装备在巡洋及以上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小型EMP立体炸弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对所有单位造成1点伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中型EMP立体炸弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对所有单位造成2点伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大型EMP立体炸弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对所有单位造成3点伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>拦截泡发射器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使一艘舰船获得嘲讽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>萨沙入侵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所有舰船 -1/-1 然后造成3点伤害，并使本回合和下一回合的舰船费用增加 1，并使其-1/-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>打捞器 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备在一艘舰船，使其在摧毁一艘舰船之后获得 1 ISK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>验证型隐形装置I</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备在一艘船，直到自己下一回合开始一直隐形，攻击或受到伤害解除隐形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>隐秘行动隐形装置 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备在一艘船，一直隐形，攻击或受到伤害解除隐形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>湮灭之圣光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>自己场上必须有勒维亚坦；回合结束对所有敌人（包含玩家）造成 8 点伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>审判之日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>自己场上必须有神使；造成 15 点伤害，敌方所有敌舰下回合无法攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>极光之仪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>自己场上必须有俄洛巴斯；造成18点伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>赫姆达洱之咆哮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>自己场上必须有拉格纳洛克；对除拉格纳洛克外所有角色（不分敌我 包含玩家）造成 12 点伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备/效果牌指令：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增益/减益类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>只能作用于舰船，不能为无人机、POS、POS装备等</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单体/AOE伤害类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般以己方舰船为载体，单体作用目标可能有类型限制（例如仅限护卫舰）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>环境干扰类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE伤害卡牌都会标注作用范围，例如：在2X2区域造成4点伤害，指的是最多作用4个卡牌位，每个卡牌位受到1点伤害，这个2X2区域玩家可以自己指定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果敌舰占用多个卡牌位，将根据目标占用的卡牌位数造成伤害，例如，占用两个卡牌位，那么造成2点伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2X2区域内，如果其中有空卡牌位，不会影响其他舰船所受到的伤害。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2X2说明：第一个2为横轴，第二个为竖轴；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：以上牌为目前能想到的，后续可能添加一些新类型/效果的卡牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有时限；如果对方在时限内使用了其他环境牌，那么将覆盖你的环境牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>虫洞脉冲星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>虫洞沃尔夫拉叶星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>虫洞黑洞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>虫洞磁星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>虫洞红巨星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>虫洞突变星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>正常环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>卡牌类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>稀有度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C、M舰船获得+1/+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A、G舰船获得+1/+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所有炮船攻击距离-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所有炮船获得+1/+0，攻击距离+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电子炸弹伤害加倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>入侵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>天象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>时限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>效果说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注释：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无法作用于无人机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益/减益/附加效果类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般以己方舰船为载体，单体作用目标可能有类型限制（例如：仅限 护卫舰 或 仅限 导弹巡洋舰）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时限；如果对方在时限内使用了其他环境牌（或 同一种环境牌），那么将覆盖你的环境牌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE伤害解释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE伤害类卡牌都会标注作用范围，例如：在2X2区域共造成4点伤害，指的是最多作用4个卡牌位，每个卡牌位受到1点伤害，这个2X2区域玩家可以自己指定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时如果敌舰占用多个卡牌位，将根据敌舰所占用的卡牌位数量造成伤害；例如，在2X2区域内占用了两个卡牌位，那么会受到2点伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：2X2区域内，如果其中有空卡牌位，不会影响其他舰船所受到的伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2X2说明：第一个“2”为横轴，第二个“2”为竖轴；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备/效果牌分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌牌面效果描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌详细效果说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -435,13 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -449,54 +450,82 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -508,42 +537,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1571,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1582,283 +1629,451 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9" style="7"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="5"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7">
+      <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7">
+      <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
+      <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="8">
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="7">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="6">
+      <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="7">
+      <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="7">
+      <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="7">
+      <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="7">
+      <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="9">
+      <c r="G18" s="7">
         <v>1</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="9">
+      <c r="G19" s="7">
         <v>1</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="9">
+      <c r="G21" s="7">
         <v>2</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="7">
+      <c r="G23" s="5">
         <v>0</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="7">
+      <c r="G24" s="5">
         <v>0</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H41:H1048576 H16 H22 H25:H38 H1:H8">
+  <mergeCells count="6">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:R2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G41:G1048576 G16 G22 G25:G38 G1:G8">
     <cfRule type="cellIs" dxfId="90" priority="36" operator="equal">
       <formula>7</formula>
     </cfRule>
@@ -1881,7 +2096,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H15 H9:H10">
+  <conditionalFormatting sqref="G12:G15 G9:G10">
     <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
@@ -1904,7 +2119,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
       <formula>7</formula>
     </cfRule>
@@ -1927,7 +2142,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H19">
+  <conditionalFormatting sqref="G17:G19">
     <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
       <formula>7</formula>
     </cfRule>
@@ -1950,7 +2165,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="G21">
     <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
@@ -1973,7 +2188,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H24">
+  <conditionalFormatting sqref="G23:G24">
     <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
@@ -2005,13 +2220,13 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9" style="7"/>
+    <col min="8" max="8" width="9" style="5"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2020,12 +2235,12 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2036,7 +2251,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -2047,7 +2262,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2058,7 +2273,7 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -2069,7 +2284,7 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2080,7 +2295,7 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2091,7 +2306,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2102,7 +2317,7 @@
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2113,25 +2328,25 @@
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2139,7 +2354,7 @@
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -2150,7 +2365,7 @@
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -2161,7 +2376,7 @@
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -2172,7 +2387,7 @@
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -2180,29 +2395,29 @@
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H17" s="9"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H18" s="8"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="9"/>
-    </row>
-    <row r="28" spans="4:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="28" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H29" s="6"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H30" s="6"/>
+      <c r="H30" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H66:H1048576 H36:H63 H8 H17:H21">
     <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
       <formula>7</formula>
@@ -2319,6 +2534,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2326,142 +2542,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>94</v>
+      <c r="P1" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="D2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="15">
         <v>4</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="P3" s="2" t="s">
-        <v>95</v>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="P3" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="P4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>91</v>
+      <c r="A8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J2:N2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2:I2">
     <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>7</formula>
